--- a/Table/xlsx/Item.xlsx
+++ b/Table/xlsx/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\Documents\GitHub\MyDetectiveServer2\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACE094E-8A03-4AF4-8C77-5ED7455FEF4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FCEBD4-4244-4A62-93E0-385448B39203}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1305" yWindow="195" windowWidth="18480" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,38 @@
   </si>
   <si>
     <t>털장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10001,10002,10003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10001,10003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10001, 10003, 10008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10003,10009,10008,10007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10004,10003]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,9 +495,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -498,11 +527,31 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -780,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -789,6 +838,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="10" max="10" width="23.125" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
@@ -828,7 +878,7 @@
       <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -843,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -863,48 +913,48 @@
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>101</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14">
-        <v>10001</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="15" t="b">
+      <c r="K3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -918,8 +968,8 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
-        <v>10002</v>
+      <c r="D4" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -927,10 +977,10 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="b">
+      <c r="G4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="b">
@@ -939,10 +989,10 @@
       <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="b">
+      <c r="K4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -956,8 +1006,8 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
-        <v>10001</v>
+      <c r="D5" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -965,10 +1015,10 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="b">
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="b">
@@ -977,10 +1027,10 @@
       <c r="J5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="b">
+      <c r="K5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -994,8 +1044,8 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
-        <v>10001</v>
+      <c r="D6" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1003,10 +1053,10 @@
       <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="b">
+      <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="3" t="b">
@@ -1015,10 +1065,10 @@
       <c r="J6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="b">
+      <c r="K6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1032,8 +1082,8 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
-        <v>10001</v>
+      <c r="D7" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1041,10 +1091,10 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="b">
+      <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="b">
@@ -1053,10 +1103,10 @@
       <c r="J7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="b">
+      <c r="K7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1070,8 +1120,8 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <v>10001</v>
+      <c r="D8" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1079,10 +1129,10 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="b">
+      <c r="G8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="b">
@@ -1091,10 +1141,10 @@
       <c r="J8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="b">
+      <c r="K8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1108,8 +1158,8 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
-        <v>10001</v>
+      <c r="D9" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1117,10 +1167,10 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="b">
+      <c r="G9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="b">
@@ -1129,10 +1179,10 @@
       <c r="J9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="b">
+      <c r="K9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1146,8 +1196,8 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
-        <v>10001</v>
+      <c r="D10" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1155,10 +1205,10 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="b">
+      <c r="G10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="b">
@@ -1167,25 +1217,25 @@
       <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5" t="b">
+      <c r="K10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
-        <v>10001</v>
+      <c r="D11" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1193,37 +1243,37 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5" t="b">
+      <c r="G11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5" t="b">
+        <v>30</v>
+      </c>
+      <c r="K11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
-        <v>10001</v>
+      <c r="D12" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1231,37 +1281,37 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="b">
+      <c r="G12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="b">
+        <v>36</v>
+      </c>
+      <c r="K12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="4">
-        <v>10001</v>
+      <c r="D13" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1269,37 +1319,37 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="b">
+      <c r="G13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5" t="b">
+        <v>37</v>
+      </c>
+      <c r="K13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
-        <v>10001</v>
+      <c r="D14" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1307,37 +1357,37 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5" t="b">
+      <c r="G14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="b">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="K14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="4">
-        <v>10001</v>
+      <c r="D15" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1345,37 +1395,37 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5" t="b">
+      <c r="G15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5" t="b">
+        <v>39</v>
+      </c>
+      <c r="K15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="4">
-        <v>10001</v>
+      <c r="D16" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1383,37 +1433,37 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="b">
+      <c r="G16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="b">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="K16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>115</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>122</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
-        <v>10001</v>
+      <c r="D17" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1421,37 +1471,37 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="b">
+      <c r="G17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5" t="b">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="K17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>116</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>123</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
-        <v>10001</v>
+      <c r="D18" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1459,37 +1509,37 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5" t="b">
+      <c r="G18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I18" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="b">
+        <v>42</v>
+      </c>
+      <c r="K18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="4">
-        <v>10001</v>
+      <c r="D19" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -1497,37 +1547,37 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5" t="b">
+      <c r="G19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5" t="b">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="K19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="4">
-        <v>10001</v>
+      <c r="D20" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1535,37 +1585,37 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5" t="b">
+      <c r="G20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="b">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="K20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>119</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
-        <v>10001</v>
+      <c r="D21" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -1573,37 +1623,37 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5" t="b">
+      <c r="G21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="b">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="K21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="4">
-        <v>10001</v>
+      <c r="D22" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1611,37 +1661,37 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="b">
+      <c r="G22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="4">
-        <v>10001</v>
+      <c r="D23" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -1649,37 +1699,37 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5" t="b">
+      <c r="G23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>122</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>67</v>
+        <v>112</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="4">
-        <v>10001</v>
+      <c r="D24" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1687,37 +1737,37 @@
       <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5" t="b">
+      <c r="G24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>123</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>68</v>
+        <v>113</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="4">
-        <v>10001</v>
+      <c r="D25" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1725,37 +1775,37 @@
       <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5" t="b">
+      <c r="G25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I25" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
-        <v>10001</v>
+      <c r="D26" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1763,37 +1813,37 @@
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5" t="b">
+      <c r="G26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="4">
-        <v>10001</v>
+      <c r="D27" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1801,37 +1851,37 @@
       <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5" t="b">
+      <c r="G27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L27" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="4">
-        <v>10001</v>
+      <c r="D28" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1839,37 +1889,37 @@
       <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5" t="b">
+      <c r="G28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5" t="b">
+        <v>35</v>
+      </c>
+      <c r="K28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="4">
-        <v>10001</v>
+      <c r="D29" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -1877,37 +1927,37 @@
       <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G29" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5" t="b">
+      <c r="G29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I29" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5" t="b">
+        <v>45</v>
+      </c>
+      <c r="K29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="4">
-        <v>10001</v>
+      <c r="D30" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1915,37 +1965,37 @@
       <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5" t="b">
+      <c r="G30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I30" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5" t="b">
+        <v>72</v>
+      </c>
+      <c r="K30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>129</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>77</v>
+        <v>128</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="4">
-        <v>10001</v>
+      <c r="D31" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -1953,29 +2003,29 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5" t="b">
+      <c r="G31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:L31" xr:uid="{6E719402-3D9B-4E04-BCB6-5F82F6D4604C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L31">
-      <sortCondition ref="A2:A31"/>
+      <sortCondition sortBy="cellColor" ref="K2:K31" dxfId="1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1988,7 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DCF3AE-B849-4DF2-984C-653BB268D2B8}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -2017,13 +2067,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>101</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2251,10 +2301,10 @@
       <c r="A24" s="3">
         <v>122</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2262,10 +2312,10 @@
       <c r="A25" s="3">
         <v>123</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2328,10 +2378,10 @@
       <c r="A31" s="3">
         <v>129</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2382,7 +2432,7 @@
       <c r="A3" s="3">
         <v>101</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">

--- a/Table/xlsx/Item.xlsx
+++ b/Table/xlsx/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\Documents\GitHub\MyDetectiveServer2\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FCEBD4-4244-4A62-93E0-385448B39203}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48125F-D81B-4179-B585-E856881DD66C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1305" yWindow="195" windowWidth="18480" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,240 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D0C1A0FC-12C9-496A-A273-83C807448DD4}</author>
+    <author>tc={DD7306CD-9CC3-4FBA-B7E2-AEEBE128E6FF}</author>
+    <author>tc={6299B792-2C25-42BB-BB49-AA74F30A3F5F}</author>
+    <author>tc={228A2648-E350-4D25-8290-590844143201}</author>
+    <author>햄스터</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D0C1A0FC-12C9-496A-A273-83C807448DD4}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    시체에게 적용할 버프</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{DD7306CD-9CC3-4FBA-B7E2-AEEBE128E6FF}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이템 사용가능 범위(원거리)</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{6299B792-2C25-42BB-BB49-AA74F30A3F5F}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이템타입(어떤 아이템인지 구분용)</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="3" shapeId="0" xr:uid="{228A2648-E350-4D25-8290-590844143201}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    버릴 수 있는 아이템인가?</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{A31827F1-7AE4-4A47-B7C3-4757D37D8549}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>햄스터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스프라이트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">이름
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{D5E553FC-E6F8-4185-AE7F-7F19B4B90934}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>햄스터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대상
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>public enum EItemTargetType
+{
+    None,
+    SelfTarget,
+    NPCTarget,
+    PlayerTarget,
+    HumanTarget,
+    CorpseTarget,
+    InteriorTarget,
+}</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="151">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stackable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#1 - Transparent Icons_49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,187 +396,575 @@
     <t>#1 - Transparent Icons_65</t>
   </si>
   <si>
+    <t>#1 - Transparent Icons_67</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_68</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_69</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_70</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_71</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_72</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_73</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_74</t>
+  </si>
+  <si>
+    <t>식칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구배트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기톱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소음기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돋보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청산가리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹음 테이프(남)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹음 테이프(여)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체 수거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독판별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응급키트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽밸트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르말린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철 실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증거조작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼펜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_75</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_76</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_77</t>
+  </si>
+  <si>
+    <t>지문대조기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액형검사키트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>털장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10001,10002,10003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10001,10003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10003,10009,10008,10007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10004,10003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10001,10003,10008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람을 죽이기에 충분한 길이의 부엌 칼 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 날카로운 송곳입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망치입니다. 머리를 내리쳐 충분히 사람을 죽일 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구배트입니다. 머리를 내리쳐 충분히 사람을 죽일 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상을 절단해서 매우 잔인하게 살해합니다. 사방에 피가 튑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 두 발이 장전되어 있는 리볼버입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체 원거리 무기에 소음효과를 추가해줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상은 30초후 죽게됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살인이 발생하면 녹음 테이프가 재생됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체를 수거합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체 주변을 자세히 확인해봅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트북입니다. CCTV 해킹, 퓨즈 해킹 등을 할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상이 어떤 독으로 사망했는지 확인합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 의심을 사지않고 자세히 관찰합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1분 내로 피살당한 시체에 한해서 되살립니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가죽 벨트입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상은 45초 이후 죽게됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대를 두들겨 팰 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독침입니다. 멀리서 독을 주입할 수 있으며 15초후 사망합니다. 돋보기에 의해 침이 발견됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>강철 실입니다. 사용시 본인의 손에 3분간</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 붉은 손자국 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흔적이 남습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">가죽 장갑입니다. 착용 할 경우 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이나 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>붉은 손자국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 남지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">가죽 장갑입니다. 착용 할 경우 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이나 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>붉은 손자국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 남지 않습니다. 
+다만, 강철 실 사용시 털장갑의 털이 주변에 떨어집니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증거를 조작합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼펜으로 찔러 죽입니다. 확률적으로 볼펜은 부러지며 인벤토리에 부러진 볼펜이 생깁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연필로 찔러서 죽입니다. 부러진 연필이 본인 인벤토리에 생기며 연필 흑심이 주변에 흩뿌려집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지문 샘플을 대조해볼 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혈액형 검사 키트입니다. 혈액 샘플을 대조해 볼 수 있습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사기입니다. 독침을 제외한 모든 독 아이템을 전부 소진한경우 인벤토리에 생깁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpseStatus</t>
+  </si>
+  <si>
+    <t>Kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCTarget</t>
+  </si>
+  <si>
+    <t>EItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EItemTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpseTarget</t>
+  </si>
+  <si>
+    <t>ItemTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#1 - Transparent Icons_66</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_67</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_68</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_69</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_70</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_71</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_72</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_73</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_74</t>
-  </si>
-  <si>
-    <t>식칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송곳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>야구배트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기톱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소음기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돋보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노트북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청산가리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹음 테이프(남)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹음 테이프(여)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시체 수거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독판별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관찰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응급키트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽밸트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포르말린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너클</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Findable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강철 실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 장갑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증거조작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼펜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_75</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_76</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_77</t>
-  </si>
-  <si>
-    <t>지문대조기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈액형검사키트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>털장갑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10001,10002,10003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10001,10003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10001, 10003, 10008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10003,10009,10008,10007]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10004,10003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체정밀조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baseball Bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric Saw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silencer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyanide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordTape Man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordTape Woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectCorpse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnifying Glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoisonCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MedKit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkinBelt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formalin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pencil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knuckles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosionNeedle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal Thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin Glove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvidenceModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Needle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FingerPirntChecker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodTypeChecker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnowGlove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorspeStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체를 정밀하게 조사해서 사인을 유추할 수 있는 증거를 찾습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +972,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,8 +1019,54 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +1100,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,9 +1166,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,19 +1197,23 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -562,6 +1233,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="햄스터" id="{DB792A0A-0DAA-44BE-9604-B33812A2010A}" userId="햄스터" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,12 +1502,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2019-12-01T06:57:54.97" personId="{DB792A0A-0DAA-44BE-9604-B33812A2010A}" id="{D0C1A0FC-12C9-496A-A273-83C807448DD4}">
+    <text>시체에게 적용할 버프</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2019-12-01T06:57:42.56" personId="{DB792A0A-0DAA-44BE-9604-B33812A2010A}" id="{DD7306CD-9CC3-4FBA-B7E2-AEEBE128E6FF}">
+    <text>아이템 사용가능 범위(원거리)</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2019-12-01T06:57:16.47" personId="{DB792A0A-0DAA-44BE-9604-B33812A2010A}" id="{6299B792-2C25-42BB-BB49-AA74F30A3F5F}">
+    <text>아이템타입(어떤 아이템인지 구분용)</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2019-12-01T06:57:27.52" personId="{DB792A0A-0DAA-44BE-9604-B33812A2010A}" id="{228A2648-E350-4D25-8290-590844143201}">
+    <text>버릴 수 있는 아이템인가?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -840,8 +1534,10 @@
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="23.125" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -864,22 +1560,22 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -893,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -902,60 +1598,60 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>21</v>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>101</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="B3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
         <v>3</v>
       </c>
-      <c r="G3" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="14" t="b">
-        <v>1</v>
+      <c r="G3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -963,13 +1659,13 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>79</v>
+      <c r="D4" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -977,8 +1673,8 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
+      <c r="G4" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H4" s="4" t="b">
         <v>1</v>
@@ -987,13 +1683,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="b">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1001,13 +1697,13 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>82</v>
+      <c r="D5" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1015,8 +1711,8 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="b">
-        <v>0</v>
+      <c r="G5" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H5" s="4" t="b">
         <v>1</v>
@@ -1025,13 +1721,13 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="b">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1039,13 +1735,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>82</v>
+      <c r="D6" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1053,8 +1749,8 @@
       <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="b">
-        <v>0</v>
+      <c r="G6" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H6" s="4" t="b">
         <v>1</v>
@@ -1063,13 +1759,13 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4" t="b">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1077,13 +1773,13 @@
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>80</v>
+      <c r="D7" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1091,8 +1787,8 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="b">
-        <v>0</v>
+      <c r="G7" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H7" s="4" t="b">
         <v>1</v>
@@ -1101,13 +1797,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="b">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1115,13 +1811,13 @@
         <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>80</v>
+      <c r="D8" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1129,8 +1825,8 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="b">
-        <v>0</v>
+      <c r="G8" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>1</v>
@@ -1139,13 +1835,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4" t="b">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1153,13 +1849,13 @@
         <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>81</v>
+      <c r="D9" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1167,8 +1863,8 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="b">
-        <v>0</v>
+      <c r="G9" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H9" s="4" t="b">
         <v>1</v>
@@ -1177,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4" t="b">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1191,13 +1887,13 @@
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>81</v>
+      <c r="D10" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1205,8 +1901,8 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="b">
-        <v>0</v>
+      <c r="G10" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H10" s="4" t="b">
         <v>1</v>
@@ -1215,27 +1911,27 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4" t="b">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="K10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>81</v>
+      <c r="D11" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1243,37 +1939,37 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="4" t="b">
+      <c r="G11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4" t="b">
-        <v>1</v>
+      <c r="L11" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>85</v>
+      <c r="D12" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1281,37 +1977,37 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="b">
+      <c r="G12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4" t="b">
-        <v>1</v>
+      <c r="L12" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>81</v>
+      <c r="D13" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1319,8 +2015,8 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="b">
-        <v>0</v>
+      <c r="G13" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H13" s="4" t="b">
         <v>1</v>
@@ -1329,27 +2025,27 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="4" t="b">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="K13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>79</v>
+      <c r="D14" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1357,37 +2053,37 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="b">
+      <c r="G14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4" t="b">
-        <v>0</v>
+      <c r="L14" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>84</v>
+      <c r="D15" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1395,37 +2091,37 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="b">
+      <c r="G15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4" t="b">
-        <v>1</v>
+      <c r="L15" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>81</v>
+      <c r="D16" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1433,37 +2129,37 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="b">
+      <c r="G16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4" t="b">
-        <v>0</v>
+      <c r="L16" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>122</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>67</v>
+        <v>115</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>81</v>
+      <c r="D17" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1471,37 +2167,37 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="b">
+      <c r="G17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4" t="b">
-        <v>0</v>
+      <c r="L17" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>123</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>68</v>
+        <v>116</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>81</v>
+      <c r="D18" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1509,37 +2205,37 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="4" t="b">
+      <c r="G18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4" t="b">
-        <v>1</v>
+      <c r="L18" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>81</v>
+      <c r="D19" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -1547,8 +2243,8 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="4" t="b">
-        <v>0</v>
+      <c r="G19" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H19" s="4" t="b">
         <v>1</v>
@@ -1557,27 +2253,27 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="K19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>81</v>
+      <c r="D20" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1585,8 +2281,8 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="b">
-        <v>0</v>
+      <c r="G20" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H20" s="4" t="b">
         <v>1</v>
@@ -1595,27 +2291,27 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4" t="b">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="K20" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>129</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>77</v>
+        <v>119</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>81</v>
+      <c r="D21" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -1623,8 +2319,8 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="4" t="b">
-        <v>0</v>
+      <c r="G21" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H21" s="4" t="b">
         <v>1</v>
@@ -1633,27 +2329,27 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4" t="b">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="K21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>83</v>
+      <c r="D22" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1661,8 +2357,8 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="4" t="b">
-        <v>0</v>
+      <c r="G22" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H22" s="4" t="b">
         <v>1</v>
@@ -1671,27 +2367,27 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4" t="b">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="K22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>83</v>
+      <c r="D23" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -1699,8 +2395,8 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="4" t="b">
-        <v>0</v>
+      <c r="G23" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H23" s="4" t="b">
         <v>1</v>
@@ -1709,65 +2405,65 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="K23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
+        <v>122</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>113</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>123</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>83</v>
+      <c r="D25" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1775,8 +2471,8 @@
       <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="4" t="b">
-        <v>0</v>
+      <c r="G25" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H25" s="4" t="b">
         <v>1</v>
@@ -1785,27 +2481,27 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4" t="b">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="K25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>83</v>
+      <c r="D26" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1813,8 +2509,8 @@
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="4" t="b">
-        <v>0</v>
+      <c r="G26" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H26" s="4" t="b">
         <v>1</v>
@@ -1823,27 +2519,27 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4" t="b">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="K26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>83</v>
+      <c r="D27" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1851,8 +2547,8 @@
       <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="4" t="b">
-        <v>0</v>
+      <c r="G27" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="H27" s="4" t="b">
         <v>1</v>
@@ -1861,27 +2557,27 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4" t="b">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="K27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>83</v>
+      <c r="D28" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1889,28 +2585,28 @@
       <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="4" t="b">
+      <c r="G28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4" t="b">
-        <v>1</v>
+      <c r="L28" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>71</v>
@@ -1918,8 +2614,8 @@
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>83</v>
+      <c r="D29" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -1927,37 +2623,37 @@
       <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G29" s="4" t="b">
+      <c r="G29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4" t="b">
-        <v>1</v>
+      <c r="L29" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>83</v>
+      <c r="D30" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1965,37 +2661,37 @@
       <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="4" t="b">
+      <c r="G30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4" t="b">
-        <v>1</v>
+      <c r="L30" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>128</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>129</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>83</v>
+      <c r="D31" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -2003,56 +2699,98 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="4" t="b">
+      <c r="G31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>130</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4" t="b">
-        <v>1</v>
+      <c r="L32" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:L31" xr:uid="{6E719402-3D9B-4E04-BCB6-5F82F6D4604C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L31">
-      <sortCondition sortBy="cellColor" ref="K2:K31" dxfId="1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L32">
+      <sortCondition ref="A2:A31"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DCF3AE-B849-4DF2-984C-653BB268D2B8}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2067,14 +2805,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>101</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
+      <c r="B3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2082,10 +2820,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2093,10 +2831,10 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2104,10 +2842,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2115,10 +2853,10 @@
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2126,10 +2864,10 @@
         <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2137,10 +2875,10 @@
         <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2148,10 +2886,10 @@
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2159,10 +2897,10 @@
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2170,10 +2908,10 @@
         <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2181,10 +2919,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2192,10 +2930,10 @@
         <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2203,10 +2941,10 @@
         <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2214,10 +2952,10 @@
         <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2225,10 +2963,10 @@
         <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2236,10 +2974,10 @@
         <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2247,10 +2985,10 @@
         <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2258,10 +2996,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2269,10 +3007,10 @@
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2280,10 +3018,10 @@
         <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2291,32 +3029,32 @@
         <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>122</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>67</v>
+      <c r="B24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>123</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>68</v>
+      <c r="B25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2324,10 +3062,10 @@
         <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2335,10 +3073,10 @@
         <v>125</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2346,10 +3084,10 @@
         <v>126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2357,10 +3095,10 @@
         <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2368,21 +3106,32 @@
         <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>129</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>77</v>
+      <c r="B31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>130</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2394,16 +3143,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC9497-2FBF-43DB-BB52-14FC0A9E0A69}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="75.875" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="65.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2411,10 +3160,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2429,14 +3178,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>101</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2444,10 +3193,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2455,10 +3204,307 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>105</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>106</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>107</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>108</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>110</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>111</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>112</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>114</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>115</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>116</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>117</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>118</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>119</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>120</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>121</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>122</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>123</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>124</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>125</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>126</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>127</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>128</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>129</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>130</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Table/xlsx/Item.xlsx
+++ b/Table/xlsx/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\Documents\GitHub\MyDetectiveServer2\Table\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\OneDrive\Documents\GitHub\MyDetectiveServer\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48125F-D81B-4179-B585-E856881DD66C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A2CD4-D61C-4D32-B9A8-F8804B6C4B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,46 +38,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D0C1A0FC-12C9-496A-A273-83C807448DD4}</author>
-    <author>tc={DD7306CD-9CC3-4FBA-B7E2-AEEBE128E6FF}</author>
-    <author>tc={6299B792-2C25-42BB-BB49-AA74F30A3F5F}</author>
-    <author>tc={228A2648-E350-4D25-8290-590844143201}</author>
     <author>햄스터</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D0C1A0FC-12C9-496A-A273-83C807448DD4}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    시체에게 적용할 버프</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{DD7306CD-9CC3-4FBA-B7E2-AEEBE128E6FF}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    아이템 사용가능 범위(원거리)</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{6299B792-2C25-42BB-BB49-AA74F30A3F5F}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    아이템타입(어떤 아이템인지 구분용)</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="3" shapeId="0" xr:uid="{228A2648-E350-4D25-8290-590844143201}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    버릴 수 있는 아이템인가?</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{A31827F1-7AE4-4A47-B7C3-4757D37D8549}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A31827F1-7AE4-4A47-B7C3-4757D37D8549}">
       <text>
         <r>
           <rPr>
@@ -142,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{D5E553FC-E6F8-4185-AE7F-7F19B4B90934}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D5E553FC-E6F8-4185-AE7F-7F19B4B90934}">
       <text>
         <r>
           <rPr>
@@ -1213,16 +1177,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1523,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2758,7 +2713,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:L31" xr:uid="{6E719402-3D9B-4E04-BCB6-5F82F6D4604C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L32">
+    <sortState ref="A3:L32">
       <sortCondition ref="A2:A31"/>
     </sortState>
   </autoFilter>
@@ -2773,7 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DCF3AE-B849-4DF2-984C-653BB268D2B8}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>

--- a/Table/xlsx/Item.xlsx
+++ b/Table/xlsx/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\OneDrive\Documents\GitHub\MyDetectiveServer\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A2CD4-D61C-4D32-B9A8-F8804B6C4B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D1139B-93EF-4BC1-8724-05816EC927FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="191">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,172 +763,308 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">혈액형 검사 키트입니다. 혈액 샘플을 대조해 볼 수 있습니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주사기입니다. 독침을 제외한 모든 독 아이템을 전부 소진한경우 인벤토리에 생깁니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NPCTarget</t>
+  </si>
+  <si>
+    <t>EItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EItemTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpseTarget</t>
+  </si>
+  <si>
+    <t>ItemTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체정밀조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baseball Bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric Saw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silencer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyanide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordTape Man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordTape Woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectCorpse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnifying Glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoisonCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MedKit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkinBelt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formalin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pencil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knuckles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosionNeedle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal Thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin Glove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvidenceModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Needle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FingerPirntChecker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodTypeChecker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnowGlove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorspeStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체를 정밀하게 조사해서 사인을 유추할 수 있는 증거를 찾습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsedPlayerGivenBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilterBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10001,10002,10003,10004,10005,10006,10007,10008,10009,10010,10011,10012,10013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10014]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseballBat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricSaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silencer</t>
+  </si>
+  <si>
+    <t>Cyanide</t>
+  </si>
+  <si>
+    <t>RecordTapeMan</t>
+  </si>
+  <si>
+    <t>CollectCorpse</t>
+  </si>
+  <si>
+    <t>MagnifyingGlass</t>
+  </si>
+  <si>
+    <t>NoteBook</t>
+  </si>
+  <si>
+    <t>PoisonCheck</t>
+  </si>
+  <si>
+    <t>Observe</t>
+  </si>
+  <si>
+    <t>MedKit</t>
+  </si>
+  <si>
+    <t>SkinBelt</t>
+  </si>
+  <si>
+    <t>Formalin</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Knuckles</t>
+  </si>
+  <si>
+    <t>PosionNeedle</t>
+  </si>
+  <si>
+    <t>MetalThread</t>
+  </si>
+  <si>
+    <t>SkinGlove</t>
+  </si>
+  <si>
+    <t>EvidenceModify</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Needle</t>
+  </si>
+  <si>
+    <t>FingerPirntChecker</t>
+  </si>
+  <si>
+    <t>BloodTypeChecker</t>
+  </si>
+  <si>
+    <t>SnowGlove</t>
+  </si>
+  <si>
     <t>CorpseStatus</t>
-  </si>
-  <si>
-    <t>Kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPCTarget</t>
-  </si>
-  <si>
-    <t>EItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EItemTargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CorpseTarget</t>
-  </si>
-  <si>
-    <t>ItemTargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시체정밀조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knife</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Awl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hammer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baseball Bat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electric Saw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Revolver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silencer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cyanide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordTape Man</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordTape Woman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollectCorpse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magnifying Glass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoteBook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoisonCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Observe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MedKit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkinBelt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formalin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pencil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knuckles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PosionNeedle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metal Thread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skin Glove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvidenceModify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Needle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FingerPirntChecker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BloodTypeChecker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SnowGlove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CorspeStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시체를 정밀하게 조사해서 사인을 유추할 수 있는 증거를 찾습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordTapeWoman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfTarget</t>
+  </si>
+  <si>
+    <t>PlayerTarget</t>
+  </si>
+  <si>
+    <t>SelfTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액형 검사 키트입니다. 혈액 샘플을 대조해 볼 수 있습니다. 사용 후 주사기가 인벤토리에 생깁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EJob</t>
+  </si>
+  <si>
+    <t>Job</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,7 +1072,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,8 +1165,17 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1079,6 +1224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1118,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1129,37 +1280,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1171,6 +1296,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1476,10 +1643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1492,1223 +1660,1512 @@
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="23.125" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="25.25" customWidth="1"/>
+    <col min="12" max="13" width="25.25" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>101</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>102</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>103</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>104</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>105</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>106</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>107</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>108</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>109</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>110</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>111</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>112</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>113</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>114</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>115</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>116</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>118</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>119</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>120</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>121</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>122</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>123</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>124</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>125</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>126</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="L28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>127</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="L29" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>128</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>129</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>130</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>101</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>3</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>102</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>103</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>104</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>105</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>106</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>107</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>108</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>110</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>111</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>112</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>114</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>115</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>116</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>117</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>119</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>120</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>121</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>122</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>123</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>124</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>125</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>126</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>127</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>128</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>129</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>130</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>116</v>
+      <c r="M32" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2729,7 +3186,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2760,13 +3217,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="5">
         <v>101</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2775,7 +3232,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>44</v>
@@ -2786,7 +3243,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>45</v>
@@ -2797,7 +3254,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>46</v>
@@ -2808,7 +3265,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>47</v>
@@ -2819,7 +3276,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -2830,7 +3287,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>48</v>
@@ -2841,7 +3298,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -2852,7 +3309,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>52</v>
@@ -2863,7 +3320,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>53</v>
@@ -2874,7 +3331,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>54</v>
@@ -2885,7 +3342,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>49</v>
@@ -2896,7 +3353,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>50</v>
@@ -2907,7 +3364,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>55</v>
@@ -2918,7 +3375,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>56</v>
@@ -2929,7 +3386,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>57</v>
@@ -2940,7 +3397,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>58</v>
@@ -2951,7 +3408,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>59</v>
@@ -2962,7 +3419,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>60</v>
@@ -2973,7 +3430,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>61</v>
@@ -2984,7 +3441,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>62</v>
@@ -2994,10 +3451,10 @@
       <c r="A24" s="3">
         <v>122</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3005,10 +3462,10 @@
       <c r="A25" s="3">
         <v>123</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3017,7 +3474,7 @@
         <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>65</v>
@@ -3028,7 +3485,7 @@
         <v>125</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
@@ -3039,7 +3496,7 @@
         <v>126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>67</v>
@@ -3050,7 +3507,7 @@
         <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>71</v>
@@ -3061,7 +3518,7 @@
         <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>72</v>
@@ -3071,10 +3528,10 @@
       <c r="A31" s="3">
         <v>129</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3083,10 +3540,10 @@
         <v>130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3100,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC9497-2FBF-43DB-BB52-14FC0A9E0A69}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3133,13 +3590,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="5">
         <v>101</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3150,7 +3607,7 @@
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3161,7 +3618,7 @@
       <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3172,7 +3629,7 @@
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3183,7 +3640,7 @@
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3194,7 +3651,7 @@
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3205,7 +3662,7 @@
       <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3216,7 +3673,7 @@
       <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3227,7 +3684,7 @@
       <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3238,7 +3695,7 @@
       <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3249,7 +3706,7 @@
       <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3260,7 +3717,7 @@
       <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3271,7 +3728,7 @@
       <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3282,7 +3739,7 @@
       <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3293,7 +3750,7 @@
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3304,7 +3761,7 @@
       <c r="B18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3315,7 +3772,7 @@
       <c r="B19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3326,7 +3783,7 @@
       <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3337,7 +3794,7 @@
       <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3348,7 +3805,7 @@
       <c r="B22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3359,7 +3816,7 @@
       <c r="B23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3367,10 +3824,10 @@
       <c r="A24" s="3">
         <v>122</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3378,10 +3835,10 @@
       <c r="A25" s="3">
         <v>123</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3392,7 +3849,7 @@
       <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3403,7 +3860,7 @@
       <c r="B27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3414,8 +3871,8 @@
       <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>109</v>
+      <c r="C28" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3425,7 +3882,7 @@
       <c r="B29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="8" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3436,18 +3893,18 @@
       <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>108</v>
+      <c r="C30" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>129</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3456,10 +3913,10 @@
         <v>130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Table/xlsx/Item.xlsx
+++ b/Table/xlsx/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\OneDrive\Documents\GitHub\MyDetectiveServer\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D1139B-93EF-4BC1-8724-05816EC927FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F4F9B9-CE0C-4AD7-9E9D-1E84CF05769D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -597,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">가죽 벨트입니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대상은 45초 이후 죽게됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1065,6 +1061,10 @@
   </si>
   <si>
     <t>Job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가죽 벨트입니다. 상대를 목졸라 죽일 수 있습니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1645,9 +1645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1684,7 +1684,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>10</v>
@@ -1699,16 +1699,16 @@
         <v>20</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1731,7 +1731,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>9</v>
@@ -1746,10 +1746,10 @@
         <v>19</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>74</v>
@@ -1778,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" s="10" t="b">
         <v>1</v>
@@ -1793,16 +1793,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" s="11" t="b">
         <v>1</v>
@@ -1840,16 +1840,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" s="11" t="b">
         <v>1</v>
@@ -1887,16 +1887,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1919,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H6" s="11" t="b">
         <v>1</v>
@@ -1934,16 +1934,16 @@
         <v>1</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H7" s="11" t="b">
         <v>1</v>
@@ -1981,16 +1981,16 @@
         <v>1</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2013,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" s="11" t="b">
         <v>1</v>
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H9" s="11" t="b">
         <v>1</v>
@@ -2075,16 +2075,16 @@
         <v>1</v>
       </c>
       <c r="L9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>186</v>
-      </c>
       <c r="N9" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="11" t="b">
         <v>1</v>
@@ -2122,16 +2122,16 @@
         <v>1</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H11" s="11" t="b">
         <v>1</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H12" s="11" t="b">
         <v>1</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H13" s="11" t="b">
         <v>1</v>
@@ -2263,16 +2263,16 @@
         <v>1</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H14" s="11" t="b">
         <v>1</v>
@@ -2310,16 +2310,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15" s="11" t="b">
         <v>1</v>
@@ -2357,16 +2357,16 @@
         <v>0</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H16" s="11" t="b">
         <v>1</v>
@@ -2404,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" s="11" t="b">
         <v>1</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="11" t="b">
         <v>1</v>
@@ -2498,16 +2498,16 @@
         <v>0</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" s="11" t="b">
         <v>1</v>
@@ -2545,16 +2545,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20" s="11" t="b">
         <v>1</v>
@@ -2586,22 +2586,22 @@
         <v>1</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K20" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H21" s="11" t="b">
         <v>1</v>
@@ -2639,16 +2639,16 @@
         <v>1</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H22" s="11" t="b">
         <v>1</v>
@@ -2686,16 +2686,16 @@
         <v>1</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H23" s="11" t="b">
         <v>1</v>
@@ -2733,16 +2733,16 @@
         <v>1</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H24" s="11" t="b">
         <v>1</v>
@@ -2780,16 +2780,16 @@
         <v>1</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H25" s="11" t="b">
         <v>1</v>
@@ -2827,16 +2827,16 @@
         <v>1</v>
       </c>
       <c r="L25" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="M25" s="23" t="s">
-        <v>186</v>
-      </c>
       <c r="N25" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="11" t="b">
         <v>1</v>
@@ -2874,16 +2874,16 @@
         <v>1</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H27" s="11" t="b">
         <v>1</v>
@@ -2921,16 +2921,16 @@
         <v>1</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H28" s="11" t="b">
         <v>1</v>
@@ -2968,16 +2968,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H29" s="11" t="b">
         <v>1</v>
@@ -3015,16 +3015,16 @@
         <v>0</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3047,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H30" s="11" t="b">
         <v>1</v>
@@ -3062,16 +3062,16 @@
         <v>0</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H31" s="11" t="b">
         <v>1</v>
@@ -3109,16 +3109,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M31" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="M31" s="23" t="s">
-        <v>186</v>
-      </c>
       <c r="N31" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3126,7 +3126,7 @@
         <v>130</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H32" s="11" t="b">
         <v>1</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3186,7 +3186,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3221,7 +3221,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>43</v>
@@ -3232,7 +3232,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>44</v>
@@ -3243,7 +3243,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>45</v>
@@ -3254,7 +3254,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>46</v>
@@ -3265,7 +3265,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>47</v>
@@ -3276,7 +3276,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>48</v>
@@ -3298,7 +3298,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -3309,7 +3309,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>52</v>
@@ -3320,7 +3320,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>53</v>
@@ -3331,7 +3331,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>54</v>
@@ -3342,7 +3342,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>49</v>
@@ -3353,7 +3353,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>50</v>
@@ -3364,7 +3364,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>55</v>
@@ -3375,7 +3375,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>56</v>
@@ -3386,7 +3386,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>57</v>
@@ -3397,7 +3397,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>58</v>
@@ -3408,7 +3408,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>59</v>
@@ -3419,7 +3419,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>60</v>
@@ -3430,7 +3430,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>61</v>
@@ -3441,7 +3441,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>62</v>
@@ -3452,7 +3452,7 @@
         <v>122</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>63</v>
@@ -3463,7 +3463,7 @@
         <v>123</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>64</v>
@@ -3474,7 +3474,7 @@
         <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>65</v>
@@ -3485,7 +3485,7 @@
         <v>125</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
@@ -3496,7 +3496,7 @@
         <v>126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>67</v>
@@ -3507,7 +3507,7 @@
         <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>71</v>
@@ -3518,7 +3518,7 @@
         <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>72</v>
@@ -3529,7 +3529,7 @@
         <v>129</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>73</v>
@@ -3540,10 +3540,10 @@
         <v>130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3557,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC9497-2FBF-43DB-BB52-14FC0A9E0A69}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3773,7 +3773,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3795,7 +3795,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3806,7 +3806,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3817,7 +3817,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3828,7 +3828,7 @@
         <v>63</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3839,7 +3839,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3850,7 +3850,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3861,7 +3861,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3872,7 +3872,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3883,7 +3883,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3894,7 +3894,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -3905,7 +3905,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3913,10 +3913,10 @@
         <v>130</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Table/xlsx/Item.xlsx
+++ b/Table/xlsx/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\OneDrive\Documents\GitHub\MyDetectiveServer\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F4F9B9-CE0C-4AD7-9E9D-1E84CF05769D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2773E5-E722-40D0-B10B-6FA66912FC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="199">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GivenBuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,10 +506,6 @@
   </si>
   <si>
     <t>[10001,10002,10003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10001,10003]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -979,9 +971,6 @@
     <t>NoteBook</t>
   </si>
   <si>
-    <t>PoisonCheck</t>
-  </si>
-  <si>
     <t>Observe</t>
   </si>
   <si>
@@ -1065,6 +1054,50 @@
   </si>
   <si>
     <t xml:space="preserve">가죽 벨트입니다. 상대를 목졸라 죽일 수 있습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펜토바르비탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10019]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10017]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10001,10003,10018]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10003,10002,10001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10001,10003,10020]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보톨리놈톡신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseOwnerGivenBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10021]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10014,10016,10017,10019]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1339,6 +1372,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1643,11 +1679,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D24" sqref="D24"/>
+    <sheetView showFormulas="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A33" sqref="A33"/>
+      <selection pane="topRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1672,43 +1709,43 @@
         <v>3</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="K1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1719,43 +1756,43 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="M2" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1763,13 +1800,13 @@
         <v>101</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -1778,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H3" s="10" t="b">
         <v>1</v>
@@ -1787,22 +1824,22 @@
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1810,13 +1847,13 @@
         <v>102</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
@@ -1825,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H4" s="11" t="b">
         <v>1</v>
@@ -1834,22 +1871,22 @@
         <v>1</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1857,13 +1894,13 @@
         <v>103</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -1872,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H5" s="11" t="b">
         <v>1</v>
@@ -1881,22 +1918,22 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1904,13 +1941,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
@@ -1919,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="11" t="b">
         <v>1</v>
@@ -1928,22 +1965,22 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1951,13 +1988,13 @@
         <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -1966,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H7" s="11" t="b">
         <v>1</v>
@@ -1975,22 +2012,22 @@
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1998,13 +2035,13 @@
         <v>106</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
@@ -2013,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H8" s="11" t="b">
         <v>1</v>
@@ -2022,22 +2059,22 @@
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2045,13 +2082,13 @@
         <v>107</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -2060,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H9" s="11" t="b">
         <v>1</v>
@@ -2069,22 +2106,22 @@
         <v>1</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2092,22 +2129,22 @@
         <v>108</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H10" s="11" t="b">
         <v>1</v>
@@ -2116,22 +2153,22 @@
         <v>1</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2139,13 +2176,13 @@
         <v>109</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
@@ -2154,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H11" s="11" t="b">
         <v>1</v>
@@ -2163,22 +2200,22 @@
         <v>1</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L11" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="M11" s="23" t="s">
-        <v>185</v>
-      </c>
       <c r="N11" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2186,13 +2223,13 @@
         <v>110</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
@@ -2201,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H12" s="11" t="b">
         <v>1</v>
@@ -2210,22 +2247,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L12" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="M12" s="23" t="s">
-        <v>185</v>
-      </c>
       <c r="N12" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2233,13 +2270,13 @@
         <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -2248,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H13" s="11" t="b">
         <v>1</v>
@@ -2257,19 +2294,19 @@
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>148</v>
@@ -2280,13 +2317,13 @@
         <v>112</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
@@ -2295,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H14" s="11" t="b">
         <v>1</v>
@@ -2304,22 +2341,22 @@
         <v>1</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2327,13 +2364,13 @@
         <v>113</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -2342,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H15" s="11" t="b">
         <v>1</v>
@@ -2351,22 +2388,22 @@
         <v>1</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L15" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="M15" s="23" t="s">
-        <v>185</v>
-      </c>
       <c r="N15" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2374,13 +2411,13 @@
         <v>114</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -2389,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="H16" s="11" t="b">
         <v>1</v>
@@ -2398,22 +2435,22 @@
         <v>1</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2421,13 +2458,13 @@
         <v>115</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -2436,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H17" s="11" t="b">
         <v>1</v>
@@ -2445,22 +2482,22 @@
         <v>1</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -2468,13 +2505,13 @@
         <v>116</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -2483,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H18" s="11" t="b">
         <v>1</v>
@@ -2492,22 +2529,22 @@
         <v>1</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -2515,13 +2552,13 @@
         <v>117</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -2530,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H19" s="11" t="b">
         <v>1</v>
@@ -2539,22 +2576,22 @@
         <v>1</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -2562,13 +2599,13 @@
         <v>118</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -2577,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H20" s="11" t="b">
         <v>1</v>
@@ -2586,22 +2623,22 @@
         <v>1</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K20" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -2609,13 +2646,13 @@
         <v>119</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
@@ -2624,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H21" s="11" t="b">
         <v>1</v>
@@ -2633,22 +2670,22 @@
         <v>1</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -2656,13 +2693,13 @@
         <v>120</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="11">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
@@ -2671,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H22" s="11" t="b">
         <v>1</v>
@@ -2680,22 +2717,22 @@
         <v>1</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -2703,13 +2740,13 @@
         <v>121</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="11">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="11">
         <v>1</v>
@@ -2718,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H23" s="11" t="b">
         <v>1</v>
@@ -2727,22 +2764,22 @@
         <v>1</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -2750,13 +2787,13 @@
         <v>122</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24" s="11">
         <v>1</v>
@@ -2765,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H24" s="11" t="b">
         <v>1</v>
@@ -2774,22 +2811,22 @@
         <v>1</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -2797,13 +2834,13 @@
         <v>123</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" s="11">
         <v>1</v>
@@ -2812,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H25" s="11" t="b">
         <v>1</v>
@@ -2821,22 +2858,22 @@
         <v>1</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -2844,13 +2881,13 @@
         <v>124</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" s="11">
         <v>1</v>
@@ -2859,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H26" s="11" t="b">
         <v>1</v>
@@ -2868,22 +2905,22 @@
         <v>1</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -2891,22 +2928,22 @@
         <v>125</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="11">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="E27" s="11">
         <v>1</v>
       </c>
       <c r="F27" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H27" s="11" t="b">
         <v>1</v>
@@ -2915,22 +2952,22 @@
         <v>1</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2938,13 +2975,13 @@
         <v>126</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="11">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" s="11">
         <v>1</v>
@@ -2953,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H28" s="11" t="b">
         <v>1</v>
@@ -2962,22 +2999,22 @@
         <v>1</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -2985,13 +3022,13 @@
         <v>127</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="11">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E29" s="11">
         <v>1</v>
@@ -3000,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H29" s="11" t="b">
         <v>1</v>
@@ -3009,22 +3046,22 @@
         <v>1</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K29" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3032,13 +3069,13 @@
         <v>128</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="11">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" s="11">
         <v>1</v>
@@ -3047,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H30" s="11" t="b">
         <v>1</v>
@@ -3056,22 +3093,22 @@
         <v>1</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K30" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3079,13 +3116,13 @@
         <v>129</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="11">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
@@ -3094,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H31" s="11" t="b">
         <v>1</v>
@@ -3103,22 +3140,22 @@
         <v>1</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="18" t="b">
         <v>1</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3126,13 +3163,13 @@
         <v>130</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
@@ -3141,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H32" s="11" t="b">
         <v>1</v>
@@ -3150,27 +3187,121 @@
         <v>1</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K32" s="19" t="b">
         <v>0</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="O32" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="O32" s="10" t="s">
-        <v>150</v>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>131</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>132</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:L31" xr:uid="{6E719402-3D9B-4E04-BCB6-5F82F6D4604C}">
-    <sortState ref="A3:L32">
+    <sortState ref="A3:L34">
       <sortCondition ref="A2:A31"/>
     </sortState>
   </autoFilter>
@@ -3183,15 +3314,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DCF3AE-B849-4DF2-984C-653BB268D2B8}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3199,10 +3331,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3221,10 +3353,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3232,10 +3364,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3243,10 +3375,10 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3254,10 +3386,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3265,10 +3397,10 @@
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3276,10 +3408,10 @@
         <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3287,10 +3419,10 @@
         <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3298,10 +3430,10 @@
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3309,10 +3441,10 @@
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3320,10 +3452,10 @@
         <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3331,10 +3463,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3342,10 +3474,10 @@
         <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3353,10 +3485,10 @@
         <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3364,10 +3496,10 @@
         <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3375,10 +3507,10 @@
         <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3386,10 +3518,10 @@
         <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3397,10 +3529,10 @@
         <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3408,10 +3540,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3419,10 +3551,10 @@
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3430,10 +3562,10 @@
         <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3441,10 +3573,10 @@
         <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3452,10 +3584,10 @@
         <v>122</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3463,10 +3595,10 @@
         <v>123</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3474,10 +3606,10 @@
         <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3485,10 +3617,10 @@
         <v>125</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3496,10 +3628,10 @@
         <v>126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3507,10 +3639,10 @@
         <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3518,10 +3650,10 @@
         <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3529,10 +3661,10 @@
         <v>129</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3540,10 +3672,32 @@
         <v>130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>131</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>132</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3555,10 +3709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC9497-2FBF-43DB-BB52-14FC0A9E0A69}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3572,10 +3726,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3594,10 +3748,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3605,10 +3759,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3616,10 +3770,10 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3627,10 +3781,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3638,10 +3792,10 @@
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3649,10 +3803,10 @@
         <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3660,10 +3814,10 @@
         <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3671,10 +3825,10 @@
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3682,10 +3836,10 @@
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3693,10 +3847,10 @@
         <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3704,10 +3858,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3715,10 +3869,10 @@
         <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3726,10 +3880,10 @@
         <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,10 +3891,10 @@
         <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3748,10 +3902,10 @@
         <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3759,10 +3913,10 @@
         <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3770,10 +3924,10 @@
         <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3781,10 +3935,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3792,10 +3946,10 @@
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3803,10 +3957,10 @@
         <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3814,10 +3968,10 @@
         <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3825,10 +3979,10 @@
         <v>122</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3836,10 +3990,10 @@
         <v>123</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3847,10 +4001,10 @@
         <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3858,10 +4012,10 @@
         <v>125</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3869,10 +4023,10 @@
         <v>126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3880,10 +4034,10 @@
         <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3891,10 +4045,10 @@
         <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -3902,10 +4056,10 @@
         <v>129</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3913,10 +4067,32 @@
         <v>130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>131</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>132</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
